--- a/biology/Botanique/Urtica_membranacea/Urtica_membranacea.xlsx
+++ b/biology/Botanique/Urtica_membranacea/Urtica_membranacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ortie douteuse ou Ortie à membranes (Urtica membranacea) est une espèce de plantes à fleurs de la famille des Urticaceae. C'est une plante herbacée, urticante, présente sur le pourtour méditerranéen et dans le Finistère.
 Elle a pour synonyme : Urtica dubia Forssk.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ortie douteuse est une plante annuelle, de 30 à 80 cm de haut, dressée et souvent rameuse.
 Ses feuilles opposées sont assez grandes, un peu plus longues que larges, ovales et aux bords dentés. Le pétiole fait à peu près la même longueur que le limbe et porte à sa base une seule stipule.
@@ -548,7 +562,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l’ortie douteuse se rencontre sur le pourtour méditerranéen (Pyrénées-Orientales, Gard, Bouches-du-Rhône, Var, Alpes-Maritimes), en Corse et dans le Finistère et les Côtes d’Armor où elle bénéficie d’un arrêt de protection.
 C’est une plante essentiellement méditerranéenne, répartie d’Israël aux Açores.
@@ -581,9 +597,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le sud de l’Italie, l’ortie douteuse est traditionnellement utilisée pour la lutter contre la toux et l’angine[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le sud de l’Italie, l’ortie douteuse est traditionnellement utilisée pour la lutter contre la toux et l’angine.
 </t>
         </is>
       </c>
